--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,11 +1003,11 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -986,13 +1025,19 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1097,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1155,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1183,11 +1250,17 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1300,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,49 +1347,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1675,52 +1814,64 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,49 +2142,61 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>300</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,90 +2236,108 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F46" s="3">
         <v>8700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2179,11 +2394,11 @@
       <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2194,11 +2409,11 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2209,8 +2424,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2238,11 +2459,11 @@
       <c r="K49" s="3">
         <v>16500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="M49" s="3">
+        <v>16500</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F54" s="3">
         <v>25400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>27500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>23600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>17400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>17700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>18200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,49 +2748,57 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,90 +2838,108 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
+        <v>200</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2705,11 +2996,11 @@
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2723,20 +3014,26 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
+        <v>200</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F76" s="3">
         <v>24700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>26800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>22900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>16500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>17500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>18000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>18600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>18100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4088,40 +4579,46 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>7300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,48 +4655,60 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,25 +1006,28 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1031,13 +1051,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,46 +1135,49 @@
         <v>2100</v>
       </c>
       <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1900</v>
       </c>
       <c r="I17" s="3">
         <v>1900</v>
       </c>
       <c r="J17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1900</v>
       </c>
       <c r="I18" s="3">
         <v>-1900</v>
       </c>
       <c r="J18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,11 +1290,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,46 +1405,49 @@
         <v>-2100</v>
       </c>
       <c r="E23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1900</v>
       </c>
       <c r="I23" s="3">
         <v>-1900</v>
       </c>
       <c r="J23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,46 +1555,49 @@
         <v>-2100</v>
       </c>
       <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1900</v>
       </c>
       <c r="I26" s="3">
         <v>-1900</v>
       </c>
       <c r="J26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,46 +1605,49 @@
         <v>-2100</v>
       </c>
       <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1900</v>
       </c>
       <c r="I27" s="3">
         <v>-1900</v>
       </c>
       <c r="J27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1820,11 +1890,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,46 +1905,49 @@
         <v>-2100</v>
       </c>
       <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1900</v>
       </c>
       <c r="I33" s="3">
         <v>-1900</v>
       </c>
       <c r="J33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,98 +2005,104 @@
         <v>-2100</v>
       </c>
       <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1900</v>
       </c>
       <c r="I35" s="3">
         <v>-1900</v>
       </c>
       <c r="J35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,46 +2238,49 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>300</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,37 +2350,37 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2289,55 +2388,61 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E46" s="3">
         <v>7000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2400,8 +2508,8 @@
       <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2415,8 +2523,8 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2465,8 +2576,8 @@
       <c r="M49" s="3">
         <v>16500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>16500</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E54" s="3">
         <v>23700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,10 +2890,10 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
@@ -2771,10 +2902,10 @@
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2783,22 +2914,25 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,17 +2978,20 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
@@ -2862,11 +2999,11 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2876,14 +3013,14 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -2891,31 +3028,34 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -2924,22 +3064,25 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,13 +3128,16 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -3002,8 +3148,8 @@
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -3020,20 +3166,23 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,31 +3328,34 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>800</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3206,22 +3364,25 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E76" s="3">
         <v>22400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,46 +3965,49 @@
         <v>-2100</v>
       </c>
       <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1900</v>
       </c>
       <c r="I81" s="3">
         <v>-1900</v>
       </c>
       <c r="J81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,13 +4813,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4585,14 +4831,14 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4600,25 +4846,28 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,11 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,42 +4925,45 @@
         <v>-1100</v>
       </c>
       <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5900</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-500</v>
       </c>
       <c r="J102" s="3">
         <v>-500</v>
       </c>
       <c r="K102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,13 +1074,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1152,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2100</v>
+        <v>4800</v>
       </c>
       <c r="E17" s="3">
         <v>2100</v>
       </c>
       <c r="F17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1900</v>
       </c>
       <c r="J17" s="3">
         <v>1900</v>
       </c>
       <c r="K17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,46 +1218,49 @@
         <v>-2100</v>
       </c>
       <c r="F18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1900</v>
       </c>
       <c r="J18" s="3">
         <v>-1900</v>
       </c>
       <c r="K18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1293,11 +1327,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2100</v>
+        <v>-4700</v>
       </c>
       <c r="E23" s="3">
         <v>-2100</v>
       </c>
       <c r="F23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1900</v>
       </c>
       <c r="J23" s="3">
         <v>-1900</v>
       </c>
       <c r="K23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2100</v>
+        <v>-4700</v>
       </c>
       <c r="E26" s="3">
         <v>-2100</v>
       </c>
       <c r="F26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1900</v>
       </c>
       <c r="J26" s="3">
         <v>-1900</v>
       </c>
       <c r="K26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2100</v>
+        <v>-4700</v>
       </c>
       <c r="E27" s="3">
         <v>-2100</v>
       </c>
       <c r="F27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1900</v>
       </c>
       <c r="J27" s="3">
         <v>-1900</v>
       </c>
       <c r="K27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1893,61 +1963,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2100</v>
+        <v>-4700</v>
       </c>
       <c r="E33" s="3">
         <v>-2100</v>
       </c>
       <c r="F33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1900</v>
       </c>
       <c r="J33" s="3">
         <v>-1900</v>
       </c>
       <c r="K33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2100</v>
+        <v>-4700</v>
       </c>
       <c r="E35" s="3">
         <v>-2100</v>
       </c>
       <c r="F35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1900</v>
       </c>
       <c r="J35" s="3">
         <v>-1900</v>
       </c>
       <c r="K35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,49 +2331,52 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>300</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,49 +2437,52 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2391,58 +2490,64 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E46" s="3">
         <v>6400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2511,8 +2619,8 @@
       <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2634,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2579,8 +2690,8 @@
       <c r="N49" s="3">
         <v>16500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>16500</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E54" s="3">
         <v>23000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,22 +3011,23 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -2905,10 +3036,10 @@
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -2917,22 +3048,25 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,20 +3115,23 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -3002,11 +3139,11 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,14 +3153,14 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3031,34 +3168,37 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -3067,22 +3207,25 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3140,7 +3286,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -3151,8 +3297,8 @@
       <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -3169,20 +3315,23 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,34 +3486,37 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
       </c>
       <c r="I66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3367,22 +3525,25 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E76" s="3">
         <v>21700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2100</v>
+        <v>-4700</v>
       </c>
       <c r="E81" s="3">
         <v>-2100</v>
       </c>
       <c r="F81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1900</v>
       </c>
       <c r="J81" s="3">
         <v>-1900</v>
       </c>
       <c r="K81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,17 +5059,20 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4834,14 +5080,14 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4849,25 +5095,28 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,57 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1100</v>
+        <v>19500</v>
       </c>
       <c r="E102" s="3">
         <v>-1100</v>
       </c>
       <c r="F102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5900</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-500</v>
       </c>
       <c r="K102" s="3">
         <v>-500</v>
       </c>
       <c r="L102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,13 +1096,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2100</v>
       </c>
       <c r="F17" s="3">
         <v>2100</v>
       </c>
       <c r="G17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1900</v>
       </c>
       <c r="K17" s="3">
         <v>1900</v>
       </c>
       <c r="L17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1244,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-2100</v>
+        <v>-4800</v>
       </c>
       <c r="F18" s="3">
         <v>-2100</v>
       </c>
       <c r="G18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1900</v>
       </c>
       <c r="K18" s="3">
         <v>-1900</v>
       </c>
       <c r="L18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1330,11 +1363,14 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2100</v>
       </c>
       <c r="F23" s="3">
         <v>-2100</v>
       </c>
       <c r="G23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1900</v>
       </c>
       <c r="K23" s="3">
         <v>-1900</v>
       </c>
       <c r="L23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2100</v>
       </c>
       <c r="F26" s="3">
         <v>-2100</v>
       </c>
       <c r="G26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1900</v>
       </c>
       <c r="K26" s="3">
         <v>-1900</v>
       </c>
       <c r="L26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-2100</v>
       </c>
       <c r="F27" s="3">
         <v>-2100</v>
       </c>
       <c r="G27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1900</v>
       </c>
       <c r="K27" s="3">
         <v>-1900</v>
       </c>
       <c r="L27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1966,64 +2035,70 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-2100</v>
       </c>
       <c r="F33" s="3">
         <v>-2100</v>
       </c>
       <c r="G33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1900</v>
       </c>
       <c r="K33" s="3">
         <v>-1900</v>
       </c>
       <c r="L33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-2100</v>
       </c>
       <c r="F35" s="3">
         <v>-2100</v>
       </c>
       <c r="G35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1900</v>
       </c>
       <c r="K35" s="3">
         <v>-1900</v>
       </c>
       <c r="L35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E41" s="3">
         <v>24300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,52 +2423,55 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>300</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2449,43 +2547,43 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2493,61 +2591,67 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2622,8 +2729,8 @@
       <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2637,8 +2744,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2693,8 +2803,8 @@
       <c r="O49" s="3">
         <v>16500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>16500</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E54" s="3">
         <v>42800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,25 +3141,26 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
@@ -3039,10 +3169,10 @@
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3051,22 +3181,25 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,23 +3251,26 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -3142,11 +3278,11 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3156,14 +3292,14 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3171,37 +3307,40 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
       </c>
       <c r="J60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3210,22 +3349,25 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3289,7 +3434,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -3300,8 +3445,8 @@
       <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -3318,20 +3463,23 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,37 +3643,40 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3528,22 +3685,25 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E76" s="3">
         <v>41200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-2100</v>
       </c>
       <c r="F81" s="3">
         <v>-2100</v>
       </c>
       <c r="G81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1900</v>
       </c>
       <c r="K81" s="3">
         <v>-1900</v>
       </c>
       <c r="L81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,20 +5304,23 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>23200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5083,14 +5328,14 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5098,25 +5343,28 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,60 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>19500</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1100</v>
       </c>
       <c r="F102" s="3">
         <v>-1100</v>
       </c>
       <c r="G102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5900</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-500</v>
       </c>
       <c r="L102" s="3">
         <v>-500</v>
       </c>
       <c r="M102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,13 +1119,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2100</v>
       </c>
       <c r="G17" s="3">
         <v>2100</v>
       </c>
       <c r="H17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1900</v>
       </c>
       <c r="L17" s="3">
         <v>1900</v>
       </c>
       <c r="M17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2100</v>
       </c>
       <c r="G18" s="3">
         <v>-2100</v>
       </c>
       <c r="H18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1900</v>
       </c>
       <c r="L18" s="3">
         <v>-1900</v>
       </c>
       <c r="M18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,11 +1356,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1366,11 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2100</v>
       </c>
       <c r="G23" s="3">
         <v>-2100</v>
       </c>
       <c r="H23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1900</v>
       </c>
       <c r="L23" s="3">
         <v>-1900</v>
       </c>
       <c r="M23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2100</v>
       </c>
       <c r="G26" s="3">
         <v>-2100</v>
       </c>
       <c r="H26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1900</v>
       </c>
       <c r="L26" s="3">
         <v>-1900</v>
       </c>
       <c r="M26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2100</v>
       </c>
       <c r="G27" s="3">
         <v>-2100</v>
       </c>
       <c r="H27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1900</v>
       </c>
       <c r="L27" s="3">
         <v>-1900</v>
       </c>
       <c r="M27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,11 +2064,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2038,67 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2100</v>
       </c>
       <c r="G33" s="3">
         <v>-2100</v>
       </c>
       <c r="H33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1900</v>
       </c>
       <c r="L33" s="3">
         <v>-1900</v>
       </c>
       <c r="M33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2100</v>
       </c>
       <c r="G35" s="3">
         <v>-2100</v>
       </c>
       <c r="H35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1900</v>
       </c>
       <c r="L35" s="3">
         <v>-1900</v>
       </c>
       <c r="M35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E41" s="3">
         <v>22000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,55 +2516,58 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
+      <c r="R43" s="3">
+        <v>300</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,55 +2634,58 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2594,64 +2693,70 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E46" s="3">
         <v>24000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,13 +2811,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2732,8 +2840,8 @@
       <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>200</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2747,8 +2855,8 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2806,8 +2917,8 @@
       <c r="P49" s="3">
         <v>16500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>16500</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E54" s="3">
         <v>40700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,19 +3282,19 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
       </c>
       <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -3172,10 +3303,10 @@
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3184,22 +3315,25 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,26 +3388,29 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -3281,11 +3418,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,14 +3432,14 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
@@ -3310,40 +3447,43 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
       </c>
       <c r="K60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3352,22 +3492,25 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3437,7 +3583,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3448,8 +3594,8 @@
       <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -3466,20 +3612,23 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,40 +3801,43 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
       </c>
       <c r="K66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3688,22 +3846,25 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E76" s="3">
         <v>38800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2100</v>
       </c>
       <c r="G81" s="3">
         <v>-2100</v>
       </c>
       <c r="H81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1900</v>
       </c>
       <c r="L81" s="3">
         <v>-1900</v>
       </c>
       <c r="M81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,23 +5550,26 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>28500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>23200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5331,14 +5577,14 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5346,25 +5592,28 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5416,63 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19500</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1100</v>
       </c>
       <c r="G102" s="3">
         <v>-1100</v>
       </c>
       <c r="H102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5900</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-500</v>
       </c>
       <c r="M102" s="3">
         <v>-500</v>
       </c>
       <c r="N102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,13 +1142,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1232,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2100</v>
       </c>
       <c r="H17" s="3">
         <v>2100</v>
       </c>
       <c r="I17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1900</v>
       </c>
       <c r="M17" s="3">
         <v>1900</v>
       </c>
       <c r="N17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>-100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1304,61 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2100</v>
       </c>
       <c r="H18" s="3">
         <v>-2100</v>
       </c>
       <c r="I18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1900</v>
       </c>
       <c r="M18" s="3">
         <v>-1900</v>
       </c>
       <c r="N18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,11 +1393,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1403,11 +1437,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,31 +1502,34 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2100</v>
       </c>
       <c r="H23" s="3">
         <v>-2100</v>
       </c>
       <c r="I23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1900</v>
       </c>
       <c r="M23" s="3">
         <v>-1900</v>
       </c>
       <c r="N23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2100</v>
       </c>
       <c r="H26" s="3">
         <v>-2100</v>
       </c>
       <c r="I26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1900</v>
       </c>
       <c r="M26" s="3">
         <v>-1900</v>
       </c>
       <c r="N26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2100</v>
       </c>
       <c r="H27" s="3">
         <v>-2100</v>
       </c>
       <c r="I27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1900</v>
       </c>
       <c r="M27" s="3">
         <v>-1900</v>
       </c>
       <c r="N27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,11 +2137,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2111,70 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2100</v>
       </c>
       <c r="H33" s="3">
         <v>-2100</v>
       </c>
       <c r="I33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1900</v>
       </c>
       <c r="M33" s="3">
         <v>-1900</v>
       </c>
       <c r="N33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2100</v>
       </c>
       <c r="H35" s="3">
         <v>-2100</v>
       </c>
       <c r="I35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1900</v>
       </c>
       <c r="M35" s="3">
         <v>-1900</v>
       </c>
       <c r="N35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E41" s="3">
         <v>45300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,58 +2609,61 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
+      <c r="S43" s="3">
+        <v>300</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,58 +2733,61 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2696,67 +2795,73 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E46" s="3">
         <v>49200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,7 +2931,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2843,8 +2951,8 @@
       <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>200</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2858,8 +2966,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2920,8 +3031,8 @@
       <c r="Q49" s="3">
         <v>16500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>16500</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E54" s="3">
         <v>65900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,31 +3403,32 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="E57" s="3">
         <v>1600</v>
       </c>
       <c r="F57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G57" s="3">
         <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>800</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
       </c>
       <c r="I57" s="3">
+        <v>800</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
@@ -3306,10 +3437,10 @@
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3318,22 +3449,25 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3525,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3400,20 +3537,20 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -3421,11 +3558,11 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3435,14 +3572,14 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -3450,43 +3587,46 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3495,27 +3635,30 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3586,7 +3732,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3597,8 +3743,8 @@
       <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>200</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3615,20 +3761,23 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,43 +3959,46 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
       </c>
       <c r="L66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -3849,22 +4007,25 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E76" s="3">
         <v>63600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2100</v>
       </c>
       <c r="H81" s="3">
         <v>-2100</v>
       </c>
       <c r="I81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1900</v>
       </c>
       <c r="M81" s="3">
         <v>-1900</v>
       </c>
       <c r="N81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,26 +5796,29 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E100" s="3">
         <v>28500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>23200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5580,14 +5826,14 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5595,30 +5841,33 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5668,66 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>23400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19500</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1100</v>
       </c>
       <c r="H102" s="3">
         <v>-1100</v>
       </c>
       <c r="I102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5900</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-500</v>
       </c>
       <c r="N102" s="3">
         <v>-500</v>
       </c>
       <c r="O102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1145,13 +1165,16 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,70 +1259,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2100</v>
       </c>
       <c r="I17" s="3">
         <v>2100</v>
       </c>
       <c r="J17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1900</v>
       </c>
       <c r="N17" s="3">
         <v>1900</v>
       </c>
       <c r="O17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>-100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,61 +1334,64 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2100</v>
       </c>
       <c r="I18" s="3">
         <v>-2100</v>
       </c>
       <c r="J18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1900</v>
       </c>
       <c r="N18" s="3">
         <v>-1900</v>
       </c>
       <c r="O18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1396,11 +1430,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1440,11 +1474,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,17 +1542,20 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1531,8 +1571,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2100</v>
       </c>
       <c r="I23" s="3">
         <v>-2100</v>
       </c>
       <c r="J23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1900</v>
       </c>
       <c r="N23" s="3">
         <v>-1900</v>
       </c>
       <c r="O23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2100</v>
       </c>
       <c r="I26" s="3">
         <v>-2100</v>
       </c>
       <c r="J26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1900</v>
       </c>
       <c r="N26" s="3">
         <v>-1900</v>
       </c>
       <c r="O26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2100</v>
       </c>
       <c r="I27" s="3">
         <v>-2100</v>
       </c>
       <c r="J27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1900</v>
       </c>
       <c r="N27" s="3">
         <v>-1900</v>
       </c>
       <c r="O27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2140,11 +2210,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2184,73 +2254,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2100</v>
       </c>
       <c r="I33" s="3">
         <v>-2100</v>
       </c>
       <c r="J33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1900</v>
       </c>
       <c r="N33" s="3">
         <v>-1900</v>
       </c>
       <c r="O33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2100</v>
       </c>
       <c r="I35" s="3">
         <v>-2100</v>
       </c>
       <c r="J35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1900</v>
       </c>
       <c r="N35" s="3">
         <v>-1900</v>
       </c>
       <c r="O35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E41" s="3">
         <v>39500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,61 +2702,64 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
+      <c r="T43" s="3">
+        <v>300</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,61 +2832,64 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
@@ -2798,70 +2897,76 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E46" s="3">
         <v>44000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2934,7 +3042,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2954,8 +3062,8 @@
       <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>200</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2969,8 +3077,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3034,8 +3145,8 @@
       <c r="R49" s="3">
         <v>16500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
+      <c r="S49" s="3">
+        <v>16500</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,31 +3287,34 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E54" s="3">
         <v>60700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,34 +3534,35 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1600</v>
       </c>
       <c r="F57" s="3">
         <v>1600</v>
       </c>
       <c r="G57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H57" s="3">
         <v>1200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
@@ -3440,10 +3571,10 @@
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3452,22 +3583,25 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,8 +3662,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3540,20 +3677,20 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -3561,11 +3698,11 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3575,14 +3712,14 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
@@ -3590,46 +3727,49 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -3638,31 +3778,34 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E61" s="3">
         <v>14300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3714,13 +3857,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3735,7 +3881,7 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -3746,8 +3892,8 @@
       <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>200</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3764,20 +3910,23 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,46 +4117,49 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E66" s="3">
         <v>17500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
       </c>
       <c r="M66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -4010,22 +4168,25 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-37900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E76" s="3">
         <v>43200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2100</v>
       </c>
       <c r="I81" s="3">
         <v>-2100</v>
       </c>
       <c r="J81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1900</v>
       </c>
       <c r="N81" s="3">
         <v>-1900</v>
       </c>
       <c r="O81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,29 +6042,32 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E100" s="3">
         <v>15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>28500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>23200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5829,14 +6075,14 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5844,25 +6090,28 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5870,7 +6119,7 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5920,69 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-1100</v>
       </c>
       <c r="I102" s="3">
         <v>-1100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5900</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-500</v>
       </c>
       <c r="O102" s="3">
         <v>-500</v>
       </c>
       <c r="P102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,109 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -823,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>6500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,13 +1187,16 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2100</v>
       </c>
       <c r="J17" s="3">
         <v>2100</v>
       </c>
       <c r="K17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1900</v>
       </c>
       <c r="O17" s="3">
         <v>1900</v>
       </c>
       <c r="P17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-9000</v>
       </c>
       <c r="E18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2100</v>
       </c>
       <c r="J18" s="3">
         <v>-2100</v>
       </c>
       <c r="K18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1900</v>
       </c>
       <c r="O18" s="3">
         <v>-1900</v>
       </c>
       <c r="P18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1433,11 +1466,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1477,11 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,20 +1581,23 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1574,8 +1613,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2100</v>
       </c>
       <c r="J23" s="3">
         <v>-2100</v>
       </c>
       <c r="K23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1900</v>
       </c>
       <c r="O23" s="3">
         <v>-1900</v>
       </c>
       <c r="P23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2100</v>
       </c>
       <c r="J26" s="3">
         <v>-2100</v>
       </c>
       <c r="K26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1900</v>
       </c>
       <c r="O26" s="3">
         <v>-1900</v>
       </c>
       <c r="P26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2100</v>
       </c>
       <c r="J27" s="3">
         <v>-2100</v>
       </c>
       <c r="K27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1900</v>
       </c>
       <c r="O27" s="3">
         <v>-1900</v>
       </c>
       <c r="P27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2213,11 +2282,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2257,76 +2326,82 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2100</v>
       </c>
       <c r="J33" s="3">
         <v>-2100</v>
       </c>
       <c r="K33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1900</v>
       </c>
       <c r="O33" s="3">
         <v>-1900</v>
       </c>
       <c r="P33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2100</v>
       </c>
       <c r="J35" s="3">
         <v>-2100</v>
       </c>
       <c r="K35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1900</v>
       </c>
       <c r="O35" s="3">
         <v>-1900</v>
       </c>
       <c r="P35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E41" s="3">
         <v>84500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,64 +2794,67 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
         <v>5100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
+      <c r="U43" s="3">
+        <v>300</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,64 +2930,67 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
@@ -2900,73 +2998,79 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E46" s="3">
         <v>90900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2100</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3045,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -3065,8 +3172,8 @@
       <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>200</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -3080,8 +3187,8 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3148,8 +3258,8 @@
       <c r="S49" s="3">
         <v>16500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="T49" s="3">
+        <v>16500</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,16 +3406,19 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -3316,8 +3435,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E54" s="3">
         <v>107700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>60700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,37 +3664,38 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1600</v>
       </c>
       <c r="G57" s="3">
         <v>1600</v>
       </c>
       <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
@@ -3574,10 +3704,10 @@
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3586,22 +3716,25 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,13 +3798,16 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -3680,20 +3816,20 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3701,11 +3837,11 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,14 +3851,14 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
@@ -3730,49 +3866,52 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3781,34 +3920,37 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E61" s="3">
         <v>14400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3860,16 +4002,19 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3884,7 +4029,7 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -3895,8 +4040,8 @@
       <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>200</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3913,20 +4058,23 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,49 +4274,52 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E66" s="3">
         <v>19400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>700</v>
       </c>
       <c r="N66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -4171,22 +4328,25 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-37900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E76" s="3">
         <v>88300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>63600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2100</v>
       </c>
       <c r="J81" s="3">
         <v>-2100</v>
       </c>
       <c r="K81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1900</v>
       </c>
       <c r="O81" s="3">
         <v>-1900</v>
       </c>
       <c r="P81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,32 +6287,35 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>52900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>28500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>23200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6078,14 +6323,14 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6093,36 +6338,39 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -6172,72 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E102" s="3">
         <v>45000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1100</v>
       </c>
       <c r="J102" s="3">
         <v>-1100</v>
       </c>
       <c r="K102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5900</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-500</v>
       </c>
       <c r="P102" s="3">
         <v>-500</v>
       </c>
       <c r="Q102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,7 +774,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
       <c r="V12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1190,13 +1210,16 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2100</v>
       </c>
       <c r="K17" s="3">
         <v>2100</v>
       </c>
       <c r="L17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1900</v>
       </c>
       <c r="P17" s="3">
         <v>1900</v>
       </c>
       <c r="Q17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>-100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9000</v>
+        <v>-6400</v>
       </c>
       <c r="E18" s="3">
         <v>-9000</v>
       </c>
       <c r="F18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-2100</v>
       </c>
       <c r="K18" s="3">
         <v>-2100</v>
       </c>
       <c r="L18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1900</v>
       </c>
       <c r="P18" s="3">
         <v>-1900</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,17 +1481,18 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1469,11 +1503,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1513,11 +1547,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,23 +1621,26 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1656,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2100</v>
       </c>
       <c r="K23" s="3">
         <v>-2100</v>
       </c>
       <c r="L23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1900</v>
       </c>
       <c r="P23" s="3">
         <v>-1900</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2100</v>
       </c>
       <c r="K26" s="3">
         <v>-2100</v>
       </c>
       <c r="L26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1900</v>
       </c>
       <c r="P26" s="3">
         <v>-1900</v>
       </c>
       <c r="Q26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2100</v>
       </c>
       <c r="K27" s="3">
         <v>-2100</v>
       </c>
       <c r="L27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1900</v>
       </c>
       <c r="P27" s="3">
         <v>-1900</v>
       </c>
       <c r="Q27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,17 +2331,20 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2285,11 +2355,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2329,79 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2100</v>
       </c>
       <c r="K33" s="3">
         <v>-2100</v>
       </c>
       <c r="L33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1900</v>
       </c>
       <c r="P33" s="3">
         <v>-1900</v>
       </c>
       <c r="Q33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2100</v>
       </c>
       <c r="K35" s="3">
         <v>-2100</v>
       </c>
       <c r="L35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1900</v>
       </c>
       <c r="P35" s="3">
         <v>-1900</v>
       </c>
       <c r="Q35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E41" s="3">
         <v>74800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1800</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,67 +2887,70 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
+      <c r="V43" s="3">
+        <v>300</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,67 +3029,70 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
@@ -3001,76 +3100,82 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E46" s="3">
         <v>82600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>90900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2100</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3254,7 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3155,7 +3263,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -3175,8 +3283,8 @@
       <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>200</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -3190,8 +3298,8 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3261,8 +3372,8 @@
       <c r="T49" s="3">
         <v>16500</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
+      <c r="U49" s="3">
+        <v>16500</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3420,8 +3540,8 @@
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -3438,8 +3558,8 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E54" s="3">
         <v>99900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>107700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,40 +3795,41 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1600</v>
       </c>
       <c r="H57" s="3">
         <v>1600</v>
       </c>
       <c r="I57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J57" s="3">
         <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
@@ -3707,10 +3838,10 @@
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3719,22 +3850,25 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,16 +3935,19 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -3819,20 +3956,20 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
@@ -3840,11 +3977,11 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3854,14 +3991,14 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
@@ -3869,52 +4006,55 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -3923,22 +4063,25 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,14 +4089,14 @@
         <v>14500</v>
       </c>
       <c r="E61" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F61" s="3">
         <v>14400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4005,19 +4148,22 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -4032,7 +4178,7 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -4043,8 +4189,8 @@
       <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>200</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -4061,20 +4207,23 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,52 +4432,55 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E66" s="3">
         <v>19700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
       </c>
       <c r="O66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>800</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -4331,22 +4489,25 @@
         <v>200</v>
       </c>
       <c r="T66" s="3">
+        <v>200</v>
+      </c>
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E76" s="3">
         <v>80200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>88300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>63600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2100</v>
       </c>
       <c r="K81" s="3">
         <v>-2100</v>
       </c>
       <c r="L81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1900</v>
       </c>
       <c r="P81" s="3">
         <v>-1900</v>
       </c>
       <c r="Q81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,35 +6533,38 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>52900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>28500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>23200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6326,14 +6572,14 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6341,25 +6587,28 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6367,13 +6616,13 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -6423,75 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>45000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-1100</v>
       </c>
       <c r="K102" s="3">
         <v>-1100</v>
       </c>
       <c r="L102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5900</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-500</v>
       </c>
       <c r="Q102" s="3">
         <v>-500</v>
       </c>
       <c r="R102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>200</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="3">
         <v>4300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1213,13 +1233,16 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-200</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>6600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2100</v>
       </c>
       <c r="L17" s="3">
         <v>2100</v>
       </c>
       <c r="M17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1900</v>
       </c>
       <c r="Q17" s="3">
         <v>1900</v>
       </c>
       <c r="R17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>-100</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-9000</v>
       </c>
       <c r="F18" s="3">
         <v>-9000</v>
       </c>
       <c r="G18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2100</v>
       </c>
       <c r="L18" s="3">
         <v>-2100</v>
       </c>
       <c r="M18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q18" s="3">
         <v>-1900</v>
       </c>
       <c r="R18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,20 +1515,21 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1506,11 +1540,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1550,11 +1584,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,26 +1661,29 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1659,8 +1699,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2100</v>
       </c>
       <c r="L23" s="3">
         <v>-2100</v>
       </c>
       <c r="M23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q23" s="3">
         <v>-1900</v>
       </c>
       <c r="R23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2100</v>
       </c>
       <c r="L26" s="3">
         <v>-2100</v>
       </c>
       <c r="M26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q26" s="3">
         <v>-1900</v>
       </c>
       <c r="R26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2100</v>
       </c>
       <c r="L27" s="3">
         <v>-2100</v>
       </c>
       <c r="M27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q27" s="3">
         <v>-1900</v>
       </c>
       <c r="R27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,20 +2401,23 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2358,11 +2428,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2402,82 +2472,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2100</v>
       </c>
       <c r="L33" s="3">
         <v>-2100</v>
       </c>
       <c r="M33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q33" s="3">
         <v>-1900</v>
       </c>
       <c r="R33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-2100</v>
       </c>
       <c r="L35" s="3">
         <v>-2100</v>
       </c>
       <c r="M35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q35" s="3">
         <v>-1900</v>
       </c>
       <c r="R35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E41" s="3">
         <v>66700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1800</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,70 +2980,73 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
-      </c>
-      <c r="U43" s="3">
-        <v>300</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
+      <c r="W43" s="3">
+        <v>300</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,70 +3128,73 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
@@ -3103,79 +3202,85 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E46" s="3">
         <v>77100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>82600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>90900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2100</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3257,7 +3365,7 @@
         <v>700</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3266,7 +3374,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3286,8 +3394,8 @@
       <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>200</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -3301,8 +3409,8 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3375,8 +3486,8 @@
       <c r="U49" s="3">
         <v>16500</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
+      <c r="V49" s="3">
+        <v>16500</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3543,8 +3663,8 @@
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -3561,8 +3681,8 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E54" s="3">
         <v>94400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>99900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>107700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>60700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,43 +3926,44 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1600</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
       </c>
       <c r="J57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
@@ -3841,10 +3972,10 @@
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3853,22 +3984,25 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,19 +4072,22 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -3959,20 +4096,20 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -3980,11 +4117,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3994,14 +4131,14 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
@@ -4009,55 +4146,58 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -4066,40 +4206,43 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="E61" s="3">
         <v>14500</v>
       </c>
       <c r="F61" s="3">
+        <v>14500</v>
+      </c>
+      <c r="G61" s="3">
         <v>14400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4160,13 +4306,13 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -4181,7 +4327,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -4192,8 +4338,8 @@
       <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>200</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -4210,20 +4356,23 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3">
         <v>100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,55 +4590,58 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E66" s="3">
         <v>18700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
       <c r="P66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4492,22 +4650,25 @@
         <v>200</v>
       </c>
       <c r="U66" s="3">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-700</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E76" s="3">
         <v>75600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>80200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>63600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1900</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-2100</v>
       </c>
       <c r="L81" s="3">
         <v>-2100</v>
       </c>
       <c r="M81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q81" s="3">
         <v>-1900</v>
       </c>
       <c r="R81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,38 +6779,41 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>52900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>28500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>23200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6575,14 +6821,14 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6590,42 +6836,45 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>1700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -6675,78 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>45000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19500</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-1100</v>
       </c>
       <c r="L102" s="3">
         <v>-1100</v>
       </c>
       <c r="M102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5900</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-500</v>
       </c>
       <c r="R102" s="3">
         <v>-500</v>
       </c>
       <c r="S102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -843,8 +850,14 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,82 +1044,90 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>800</v>
       </c>
       <c r="N12" s="3">
         <v>900</v>
       </c>
       <c r="O12" s="3">
+        <v>800</v>
+      </c>
+      <c r="P12" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
-      </c>
-      <c r="T12" s="3">
-        <v>300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>300</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>100</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,13 +1275,19 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-200</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>-100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-5600</v>
       </c>
       <c r="E18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-6200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>100</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,26 +1581,28 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1543,14 +1610,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1587,11 +1654,17 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,16 +1737,22 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
@@ -1682,14 +1761,14 @@
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,11 +1781,11 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1738,82 +1817,94 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-6200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-6200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,26 +2537,32 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2431,14 +2570,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2475,85 +2614,97 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-6200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-6200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +3006,90 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>57400</v>
+      </c>
+      <c r="F41" s="3">
         <v>61200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>66700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>74800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>84500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>39500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>45300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>22000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>24300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1800</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,82 +3162,94 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F43" s="3">
         <v>5100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>200</v>
+      </c>
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
+      <c r="Y43" s="3">
+        <v>300</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,156 +3322,174 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E45" s="3">
         <v>4700</v>
       </c>
       <c r="F45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>66700</v>
+      </c>
+      <c r="F46" s="3">
         <v>70500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>77100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>82600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>90900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>44000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>49200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>24000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>26100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>10800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2100</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,34 +3562,40 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3397,11 +3612,11 @@
       <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -3412,11 +3627,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3427,8 +3642,14 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3489,11 +3710,11 @@
       <c r="V49" s="3">
         <v>16500</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
+      <c r="W49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="X49" s="3">
+        <v>16500</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
@@ -3501,8 +3722,14 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3666,11 +3905,11 @@
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -3684,11 +3923,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3723,8 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>83800</v>
+      </c>
+      <c r="F54" s="3">
         <v>87800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>94400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>99900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>107700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>60700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>65900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>40700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>42800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>23000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>23700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>24500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>25400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>27500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>23600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>17400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>17700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>18200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>18800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>18400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,105 +4186,113 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>800</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>200</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4075,180 +4342,198 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
+      <c r="X60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>200</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F61" s="3">
         <v>14600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>14500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>14500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>14400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>14300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4297,28 +4582,34 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -4330,10 +4621,10 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -4341,11 +4632,11 @@
       <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
+        <v>200</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -4359,20 +4650,26 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y62" s="3">
         <v>100</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F66" s="3">
         <v>17900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>17500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
       <c r="V66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
+      <c r="X66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>200</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-77500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-70600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-63700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-54000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-44600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-37900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-33400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-30200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-25500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-23300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-700</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>63700</v>
+      </c>
+      <c r="F76" s="3">
         <v>69900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>75600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>80200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>88300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>43200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>63600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>38800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>21700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>22400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>23600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>24700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>26800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>22900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>16500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>17500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>18000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>18600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>18100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-6200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +6087,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-9800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6601,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6677,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6837,14 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6917,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7267,14 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6791,97 +7282,103 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>52900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>15000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>28500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>23200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>7300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -6927,81 +7424,93 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-9700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>45000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>23400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>19500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,143 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,88 +1059,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E12" s="3">
         <v>3400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
       <c r="Z12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="3">
         <v>100</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1281,13 +1301,16 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-200</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2100</v>
       </c>
       <c r="O17" s="3">
         <v>2100</v>
       </c>
       <c r="P17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1900</v>
       </c>
       <c r="T17" s="3">
         <v>1900</v>
       </c>
       <c r="U17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>-100</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-6400</v>
       </c>
       <c r="G18" s="3">
         <v>-6400</v>
       </c>
       <c r="H18" s="3">
-        <v>-9000</v>
+        <v>-6400</v>
       </c>
       <c r="I18" s="3">
         <v>-9000</v>
       </c>
       <c r="J18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2100</v>
       </c>
       <c r="O18" s="3">
         <v>-2100</v>
       </c>
       <c r="P18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1900</v>
       </c>
       <c r="T18" s="3">
         <v>-1900</v>
       </c>
       <c r="U18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>100</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,29 +1616,30 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1616,11 +1650,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1660,11 +1694,14 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1752,26 +1792,26 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1787,8 +1827,8 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2100</v>
       </c>
       <c r="O23" s="3">
         <v>-2100</v>
       </c>
       <c r="P23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1900</v>
       </c>
       <c r="T23" s="3">
         <v>-1900</v>
       </c>
       <c r="U23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2100</v>
       </c>
       <c r="O26" s="3">
         <v>-2100</v>
       </c>
       <c r="P26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1900</v>
       </c>
       <c r="T26" s="3">
         <v>-1900</v>
       </c>
       <c r="U26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2100</v>
       </c>
       <c r="O27" s="3">
         <v>-2100</v>
       </c>
       <c r="P27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-1900</v>
       </c>
       <c r="T27" s="3">
         <v>-1900</v>
       </c>
       <c r="U27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,29 +2610,32 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2576,11 +2646,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2620,91 +2690,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-2100</v>
       </c>
       <c r="O33" s="3">
         <v>-2100</v>
       </c>
       <c r="P33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-1900</v>
       </c>
       <c r="T33" s="3">
         <v>-1900</v>
       </c>
       <c r="U33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-2100</v>
       </c>
       <c r="O35" s="3">
         <v>-2100</v>
       </c>
       <c r="P35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-1900</v>
       </c>
       <c r="T35" s="3">
         <v>-1900</v>
       </c>
       <c r="U35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E41" s="3">
         <v>52200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>74800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1800</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,79 +3258,82 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>8500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
-      </c>
-      <c r="X43" s="3">
-        <v>300</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>3</v>
+      <c r="Z43" s="3">
+        <v>300</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>3</v>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,79 +3424,82 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>3</v>
@@ -3408,88 +3507,94 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E46" s="3">
         <v>64700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>66700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>70500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>77100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>90900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>44000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2100</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3580,7 +3688,7 @@
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -3589,7 +3697,7 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3598,7 +3706,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3618,8 +3726,8 @@
       <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>200</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3633,8 +3741,8 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3716,8 +3827,8 @@
       <c r="X49" s="3">
         <v>16500</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
+      <c r="Y49" s="3">
+        <v>16500</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3911,8 +4031,8 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -3929,8 +4049,8 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E54" s="3">
         <v>81800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>83800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>87800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>94400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>99900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>107700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2100</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,52 +4318,53 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1600</v>
       </c>
       <c r="L57" s="3">
         <v>1600</v>
       </c>
       <c r="M57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N57" s="3">
         <v>1200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>800</v>
       </c>
       <c r="P57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -4242,10 +4373,10 @@
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -4254,34 +4385,37 @@
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4294,8 +4428,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,19 +4494,19 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
@@ -4378,20 +4515,20 @@
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -4399,11 +4536,11 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4413,14 +4550,14 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
+      <c r="Z59" s="3">
+        <v>0</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
@@ -4428,64 +4565,67 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E60" s="3">
         <v>10900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
       <c r="S60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>800</v>
       </c>
       <c r="U60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
@@ -4494,49 +4634,52 @@
         <v>200</v>
       </c>
       <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E61" s="3">
         <v>9700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>14500</v>
       </c>
       <c r="H61" s="3">
         <v>14500</v>
       </c>
       <c r="I61" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J61" s="3">
         <v>14400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4600,19 +4746,19 @@
         <v>1100</v>
       </c>
       <c r="F62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
       </c>
       <c r="H62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4627,7 +4773,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -4638,8 +4784,8 @@
       <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>200</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
@@ -4656,20 +4802,23 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3">
         <v>100</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,64 +5063,67 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E66" s="3">
         <v>21700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>700</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
       </c>
       <c r="S66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T66" s="3">
         <v>800</v>
       </c>
       <c r="U66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
@@ -4974,22 +5132,25 @@
         <v>200</v>
       </c>
       <c r="X66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-85200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-44600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-25500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-700</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E76" s="3">
         <v>60100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1900</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-2100</v>
       </c>
       <c r="O81" s="3">
         <v>-2100</v>
       </c>
       <c r="P81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-1900</v>
       </c>
       <c r="T81" s="3">
         <v>-1900</v>
       </c>
       <c r="U81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7288,32 +7534,32 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>52900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>28500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>23200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7321,14 +7567,14 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7336,51 +7582,54 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>900</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>1700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -7430,87 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>45000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19500</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-1100</v>
       </c>
       <c r="O102" s="3">
         <v>-1100</v>
       </c>
       <c r="P102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5900</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-500</v>
       </c>
       <c r="U102" s="3">
         <v>-500</v>
       </c>
       <c r="V102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,22 +793,22 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -863,8 +867,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,82 +1083,85 @@
         <v>4100</v>
       </c>
       <c r="E12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F12" s="3">
         <v>3400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
       <c r="AA12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="3">
         <v>100</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1304,13 +1324,16 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-200</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,8 +1446,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1429,82 +1456,85 @@
         <v>6500</v>
       </c>
       <c r="E17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2100</v>
       </c>
       <c r="P17" s="3">
         <v>2100</v>
       </c>
       <c r="Q17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1900</v>
       </c>
       <c r="U17" s="3">
         <v>1900</v>
       </c>
       <c r="V17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>-100</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,82 +1542,85 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-6400</v>
       </c>
       <c r="H18" s="3">
         <v>-6400</v>
       </c>
       <c r="I18" s="3">
-        <v>-9000</v>
+        <v>-6400</v>
       </c>
       <c r="J18" s="3">
         <v>-9000</v>
       </c>
       <c r="K18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2100</v>
       </c>
       <c r="P18" s="3">
         <v>-2100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1900</v>
       </c>
       <c r="U18" s="3">
         <v>-1900</v>
       </c>
       <c r="V18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-6200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>100</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,23 +1660,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1653,11 +1687,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1697,11 +1731,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1795,26 +1835,26 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
       </c>
       <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1870,8 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1866,8 +1906,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1875,82 +1918,85 @@
         <v>-6500</v>
       </c>
       <c r="E23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2100</v>
       </c>
       <c r="P23" s="3">
         <v>-2100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-1900</v>
       </c>
       <c r="U23" s="3">
         <v>-1900</v>
       </c>
       <c r="V23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>100</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2164,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2124,82 +2176,85 @@
         <v>-6500</v>
       </c>
       <c r="E26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-2100</v>
       </c>
       <c r="P26" s="3">
         <v>-2100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-1900</v>
       </c>
       <c r="U26" s="3">
         <v>-1900</v>
       </c>
       <c r="V26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>100</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2207,82 +2262,85 @@
         <v>-6500</v>
       </c>
       <c r="E27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-2100</v>
       </c>
       <c r="P27" s="3">
         <v>-2100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-1900</v>
       </c>
       <c r="U27" s="3">
         <v>-1900</v>
       </c>
       <c r="V27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>100</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,23 +2692,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2649,11 +2719,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2693,11 +2763,14 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2705,82 +2778,85 @@
         <v>-6500</v>
       </c>
       <c r="E33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-2100</v>
       </c>
       <c r="P33" s="3">
         <v>-2100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-1900</v>
       </c>
       <c r="U33" s="3">
         <v>-1900</v>
       </c>
       <c r="V33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>100</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,8 +2938,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2871,170 +2950,176 @@
         <v>-6500</v>
       </c>
       <c r="E35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-2100</v>
       </c>
       <c r="P35" s="3">
         <v>-2100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-1900</v>
       </c>
       <c r="U35" s="3">
         <v>-1900</v>
       </c>
       <c r="V35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>100</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E41" s="3">
         <v>51000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>66700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>74800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1800</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,82 +3351,85 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>200</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>300</v>
       </c>
       <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>3</v>
+      <c r="AA43" s="3">
+        <v>300</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>3</v>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,82 +3523,85 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>3</v>
+      <c r="AA45" s="3">
+        <v>0</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>3</v>
@@ -3510,91 +3609,97 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E46" s="3">
         <v>56900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>64700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>66700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>70500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>77100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>82600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>90900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2100</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3691,7 +3799,7 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -3700,7 +3808,7 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3709,7 +3817,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3729,8 +3837,8 @@
       <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+      <c r="T48" s="3">
+        <v>200</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -3744,8 +3852,8 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3830,8 +3941,8 @@
       <c r="Y49" s="3">
         <v>16500</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>3</v>
+      <c r="Z49" s="3">
+        <v>16500</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>3</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4034,8 +4154,8 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -4052,8 +4172,8 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E54" s="3">
         <v>74000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>83800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>87800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>94400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>99900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>107700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2100</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,55 +4449,56 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1600</v>
       </c>
       <c r="M57" s="3">
         <v>1600</v>
       </c>
       <c r="N57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O57" s="3">
         <v>1200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
       </c>
       <c r="Q57" s="3">
+        <v>800</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
@@ -4376,10 +4507,10 @@
         <v>500</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>800</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -4388,37 +4519,40 @@
         <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4431,8 +4565,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4497,19 +4634,19 @@
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -4518,20 +4655,20 @@
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
@@ -4539,11 +4676,11 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4553,14 +4690,14 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>3</v>
+      <c r="AA59" s="3">
+        <v>0</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>3</v>
@@ -4568,67 +4705,70 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E60" s="3">
         <v>10300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>800</v>
       </c>
       <c r="V60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
@@ -4637,52 +4777,55 @@
         <v>200</v>
       </c>
       <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>14500</v>
       </c>
       <c r="I61" s="3">
         <v>14500</v>
       </c>
       <c r="J61" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K61" s="3">
         <v>14400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4734,13 +4877,16 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
@@ -4749,19 +4895,19 @@
         <v>1100</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
       </c>
       <c r="I62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4776,7 +4922,7 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -4787,8 +4933,8 @@
       <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+      <c r="T62" s="3">
+        <v>200</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
@@ -4805,20 +4951,23 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA62" s="3">
         <v>100</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,67 +5221,70 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E66" s="3">
         <v>18700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>700</v>
       </c>
       <c r="S66" s="3">
         <v>700</v>
       </c>
       <c r="T66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U66" s="3">
         <v>800</v>
       </c>
       <c r="V66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
@@ -5135,22 +5293,25 @@
         <v>200</v>
       </c>
       <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
         <v>300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-97600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-85200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-700</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E76" s="3">
         <v>55300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>63700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>80200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>88300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1900</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,96 +6199,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6107,82 +6302,85 @@
         <v>-6500</v>
       </c>
       <c r="E81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-2100</v>
       </c>
       <c r="P81" s="3">
         <v>-2100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-1900</v>
       </c>
       <c r="U81" s="3">
         <v>-1900</v>
       </c>
       <c r="V81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>100</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7537,32 +7783,32 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>52900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>28500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>23200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7570,14 +7816,14 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>5000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7585,25 +7831,28 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>1700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7611,28 +7860,28 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7682,90 +7931,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>45000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19500</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-1100</v>
       </c>
       <c r="P102" s="3">
         <v>-1100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5900</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-500</v>
       </c>
       <c r="V102" s="3">
         <v>-500</v>
       </c>
       <c r="W102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>INMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -870,8 +874,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +963,11 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,94 +1087,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4100</v>
+        <v>6000</v>
       </c>
       <c r="E12" s="3">
         <v>4100</v>
       </c>
       <c r="F12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G12" s="3">
         <v>3400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
       <c r="AB12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="3">
         <v>100</v>
       </c>
-      <c r="AD12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1327,13 +1347,16 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-200</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,94 +1473,98 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6500</v>
+        <v>8600</v>
       </c>
       <c r="E17" s="3">
         <v>6500</v>
       </c>
       <c r="F17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2100</v>
       </c>
       <c r="Q17" s="3">
         <v>2100</v>
       </c>
       <c r="R17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1900</v>
       </c>
       <c r="V17" s="3">
         <v>1900</v>
       </c>
       <c r="W17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>-100</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1545,82 +1575,85 @@
         <v>-6500</v>
       </c>
       <c r="F18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-6400</v>
       </c>
       <c r="I18" s="3">
         <v>-6400</v>
       </c>
       <c r="J18" s="3">
-        <v>-9000</v>
+        <v>-6400</v>
       </c>
       <c r="K18" s="3">
         <v>-9000</v>
       </c>
       <c r="L18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M18" s="3">
         <v>-6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q18" s="3">
         <v>-2100</v>
       </c>
       <c r="R18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1900</v>
       </c>
       <c r="V18" s="3">
         <v>-1900</v>
       </c>
       <c r="W18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>100</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1660,26 +1694,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1690,11 +1724,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1734,11 +1768,14 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,8 +1860,11 @@
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1838,26 +1878,26 @@
         <v>600</v>
       </c>
       <c r="G22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
       </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1873,8 +1913,8 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1909,94 +1949,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6500</v>
+        <v>-8600</v>
       </c>
       <c r="E23" s="3">
         <v>-6500</v>
       </c>
       <c r="F23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q23" s="3">
         <v>-2100</v>
       </c>
       <c r="R23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-1900</v>
       </c>
       <c r="V23" s="3">
         <v>-1900</v>
       </c>
       <c r="W23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>100</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6500</v>
+        <v>-8600</v>
       </c>
       <c r="E26" s="3">
         <v>-6500</v>
       </c>
       <c r="F26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q26" s="3">
         <v>-2100</v>
       </c>
       <c r="R26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-1900</v>
       </c>
       <c r="V26" s="3">
         <v>-1900</v>
       </c>
       <c r="W26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>100</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6500</v>
+        <v>-8600</v>
       </c>
       <c r="E27" s="3">
         <v>-6500</v>
       </c>
       <c r="F27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q27" s="3">
         <v>-2100</v>
       </c>
       <c r="R27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-1900</v>
       </c>
       <c r="V27" s="3">
         <v>-1900</v>
       </c>
       <c r="W27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>100</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2692,26 +2762,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2722,11 +2792,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2766,97 +2836,103 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6500</v>
+        <v>-8600</v>
       </c>
       <c r="E33" s="3">
         <v>-6500</v>
       </c>
       <c r="F33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q33" s="3">
         <v>-2100</v>
       </c>
       <c r="R33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-1900</v>
       </c>
       <c r="V33" s="3">
         <v>-1900</v>
       </c>
       <c r="W33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>100</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6500</v>
+        <v>-8600</v>
       </c>
       <c r="E35" s="3">
         <v>-6500</v>
       </c>
       <c r="F35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q35" s="3">
         <v>-2100</v>
       </c>
       <c r="R35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-1900</v>
       </c>
       <c r="V35" s="3">
         <v>-1900</v>
       </c>
       <c r="W35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>100</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E41" s="3">
         <v>47800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>74800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>45300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1800</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,85 +3444,88 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>300</v>
       </c>
       <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>3</v>
+      <c r="AB43" s="3">
+        <v>300</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>3</v>
@@ -3440,8 +3533,11 @@
       <c r="AD43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,85 +3622,88 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>3</v>
+      <c r="AB45" s="3">
+        <v>0</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>3</v>
@@ -3612,94 +3711,100 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E46" s="3">
         <v>52600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>56900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>66700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>70500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>77100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>82600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>90900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2100</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,13 +3889,16 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -3802,7 +3910,7 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -3811,7 +3919,7 @@
         <v>700</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3820,7 +3928,7 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3840,8 +3948,8 @@
       <c r="T48" s="3">
         <v>200</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
+      <c r="U48" s="3">
+        <v>200</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
@@ -3855,8 +3963,8 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
@@ -3870,8 +3978,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3944,8 +4055,8 @@
       <c r="Z49" s="3">
         <v>16500</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>3</v>
+      <c r="AA49" s="3">
+        <v>16500</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>3</v>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4245,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4157,8 +4277,8 @@
       <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -4175,8 +4295,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E54" s="3">
         <v>69700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>81800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>87800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>94400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>99900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>107700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>18400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2100</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,58 +4580,59 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1600</v>
       </c>
       <c r="N57" s="3">
         <v>1600</v>
       </c>
       <c r="O57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
+        <v>800</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
@@ -4510,10 +4641,10 @@
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>800</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
@@ -4522,22 +4653,25 @@
         <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4545,17 +4679,17 @@
         <v>10000</v>
       </c>
       <c r="E58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4568,8 +4702,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4622,13 +4756,16 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
@@ -4637,19 +4774,19 @@
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
@@ -4658,20 +4795,20 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
@@ -4679,11 +4816,11 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4693,14 +4830,14 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>3</v>
+      <c r="AB59" s="3">
+        <v>0</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>3</v>
@@ -4708,70 +4845,73 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E60" s="3">
         <v>13100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
       </c>
       <c r="U60" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>800</v>
       </c>
       <c r="W60" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
@@ -4780,55 +4920,58 @@
         <v>200</v>
       </c>
       <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
         <v>300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>200</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>14500</v>
       </c>
       <c r="J61" s="3">
         <v>14500</v>
       </c>
       <c r="K61" s="3">
+        <v>14500</v>
+      </c>
+      <c r="L61" s="3">
         <v>14400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4880,8 +5023,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4889,7 +5035,7 @@
         <v>1200</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>1100</v>
@@ -4898,19 +5044,19 @@
         <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I62" s="3">
         <v>1000</v>
       </c>
       <c r="J62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4925,7 +5071,7 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
@@ -4936,8 +5082,8 @@
       <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
+      <c r="U62" s="3">
+        <v>200</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
@@ -4954,20 +5100,23 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="3">
         <v>100</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,70 +5379,73 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>700</v>
       </c>
       <c r="T66" s="3">
         <v>700</v>
       </c>
       <c r="U66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V66" s="3">
         <v>800</v>
       </c>
       <c r="W66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
@@ -5296,22 +5454,25 @@
         <v>200</v>
       </c>
       <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>200</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-104100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-97600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-85200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-70600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-63700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-37900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-700</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E76" s="3">
         <v>50700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>63700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>80200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>88300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1900</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6500</v>
+        <v>-8600</v>
       </c>
       <c r="E81" s="3">
         <v>-6500</v>
       </c>
       <c r="F81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q81" s="3">
         <v>-2100</v>
       </c>
       <c r="R81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-1900</v>
       </c>
       <c r="V81" s="3">
         <v>-1900</v>
       </c>
       <c r="W81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>100</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-100</v>
       </c>
       <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7389,8 +7619,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,13 +8008,16 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7786,32 +8032,32 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>52900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>28500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>23200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7819,14 +8065,14 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>5000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7834,25 +8080,28 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>900</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>1700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7863,28 +8112,28 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -7934,93 +8183,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-      <c r="AD101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19500</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q102" s="3">
         <v>-1100</v>
       </c>
       <c r="R102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5900</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-500</v>
       </c>
       <c r="W102" s="3">
         <v>-500</v>
       </c>
       <c r="X102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
